--- a/gasfactor.xlsx
+++ b/gasfactor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TCC\Projeto\Code\Flow-and-Pressure-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33179BB0-2DF9-4DC9-887E-E04406C2D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF619A4A-6719-4DC6-8496-7873E242FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10725" yWindow="-225" windowWidth="21600" windowHeight="11835" xr2:uid="{CB1B2230-46D4-444D-9DA5-B2B3313C730D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CB1B2230-46D4-444D-9DA5-B2B3313C730D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>NH3</t>
   </si>
@@ -215,13 +215,1263 @@
   </si>
   <si>
     <t>xe</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>GFC</t>
+  </si>
+  <si>
+    <r>
+      <t>NH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AsH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Br</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHClF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CClF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CBr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SiH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CBrF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MoF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SiH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SiCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SiF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SiHCl</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,16 +1485,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -252,15 +1524,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,871 +1898,1488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BD4591-69D9-4B65-BE1F-C687775B8D60}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F62" sqref="A1:F62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.73</v>
-      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.39</v>
-      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.67</v>
-      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.41</v>
-      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.81</v>
-      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.7</v>
-      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.31</v>
-      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.42</v>
-      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.86</v>
-      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.46</v>
-      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.24</v>
-      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="9"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.38</v>
-      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.61</v>
-      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.19</v>
-      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.44</v>
-      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.35</v>
-      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.42</v>
-      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.4</v>
-      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.22</v>
-      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.43</v>
-      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.98</v>
-      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.33</v>
-      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.37</v>
-      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.2</v>
-      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.24</v>
-      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.16400000000000001</v>
-      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.45</v>
-      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.01</v>
-      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2">
         <v>36</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.5429999999999999</v>
-      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.72</v>
-      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.56000000000000005</v>
-      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>39</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.21</v>
-      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1.46</v>
-      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.99</v>
-      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.48</v>
-      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.71</v>
-      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.99299999999999999</v>
-      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.17</v>
-      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.44</v>
-      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.36</v>
-      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.41</v>
-      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.6</v>
-      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J51" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
         <v>51</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.35</v>
-      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
         <v>52</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.69</v>
-      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
         <v>53</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0.26</v>
-      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J55" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
         <v>54</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.33</v>
-      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J56" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2">
         <v>55</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.2</v>
-      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
         <v>56</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0.25</v>
-      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
         <v>57</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1.32</v>
-      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
         <v>58</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.22</v>
-      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J60" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
         <v>59</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0.5</v>
-      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
+      <c r="J62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="65" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J65" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+    </row>
+    <row r="66" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J67" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J68" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+    </row>
+    <row r="70" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="74" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+    </row>
+    <row r="80" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+    </row>
+    <row r="82" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+    </row>
+    <row r="83" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="84" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S85" s="5"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+    </row>
+    <row r="86" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S86" s="5"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+    </row>
+    <row r="87" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+    </row>
+    <row r="88" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="T85:T86"/>
+    <mergeCell ref="U85:U86"/>
+    <mergeCell ref="V85:V86"/>
+    <mergeCell ref="W85:W86"/>
+    <mergeCell ref="S14:S15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
